--- a/RUDN/Importance/Varible_class_in_South America.xlsx
+++ b/RUDN/Importance/Varible_class_in_South America.xlsx
@@ -14,15 +14,177 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
   <si>
     <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
 </sst>
 </file>
@@ -380,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6272903847982287</v>
+        <v>0.3060344755649567</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1882563872702825</v>
+        <v>0.2586206793785095</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +574,439 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1844532279314888</v>
+        <v>0.1034482792019844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0517241396009922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.03017241321504116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.008620689623057842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.008620689623057842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.008620689623057842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.008620689623057842</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.008620689623057842</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.008620689623057842</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.004310344811528921</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.004310344811528921</v>
       </c>
     </row>
   </sheetData>
